--- a/programa/kdtree/resultados/evaluacion-resultados.xlsx
+++ b/programa/kdtree/resultados/evaluacion-resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSA\Maestría CC\Teoria de la Computacion\Trabajo Final\teoriaCoputacion\programa\kdtree\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C2345-2D87-424D-92F1-DD439154D4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946BD13-9F8B-4987-AE83-B74B06ED3F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="3" xr2:uid="{56802EB0-D70F-482A-A1E9-ECE102AABD3F}"/>
   </bookViews>
@@ -6547,8 +6547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD040C7D-3D78-4822-8C30-40D0C459C2A6}">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programa/kdtree/resultados/evaluacion-resultados.xlsx
+++ b/programa/kdtree/resultados/evaluacion-resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSA\Maestría CC\Teoria de la Computacion\Trabajo Final\teoriaCoputacion\programa\kdtree\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946BD13-9F8B-4987-AE83-B74B06ED3F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1F57B-F2D5-41FE-A67E-C83A8836E778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="3" xr2:uid="{56802EB0-D70F-482A-A1E9-ECE102AABD3F}"/>
   </bookViews>
@@ -6548,7 +6548,7 @@
   <dimension ref="A1:U110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
